--- a/tests/sample_files/sample_rdf.xlsx
+++ b/tests/sample_files/sample_rdf.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DA3FDE2B-BE01-49EC-8AE4-4C9EB624C62F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF969723-0F2A-46CC-94C6-F143809C8709}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
-  <si>
-    <t>h</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>foo</t>
   </si>
@@ -39,9 +36,6 @@
     <t>eggs</t>
   </si>
   <si>
-    <t>asdf</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>My Description</t>
   </si>
   <si>
-    <t>NO ELEMENT PROVIDED. THIS SHOULD NOT APPEAR IN THE RDF.</t>
-  </si>
-  <si>
     <t>My Relation</t>
   </si>
   <si>
@@ -82,6 +73,24 @@
   </si>
   <si>
     <t>identifier</t>
+  </si>
+  <si>
+    <t>extra_header</t>
+  </si>
+  <si>
+    <t>NO ELEMENT PROVIDED. THIS SHOULD BE IGNORED.</t>
+  </si>
+  <si>
+    <t>THIS SHOULD BE IGNORED.</t>
+  </si>
+  <si>
+    <t>id_1234</t>
+  </si>
+  <si>
+    <t>ignored</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
 </sst>
 </file>
@@ -125,9 +134,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,82 +426,82 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="str">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="str">
         <f>CONCATENATE("My Type (this was created by Excel formula)")</f>
         <v>My Type (this was created by Excel formula)</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>1234</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -499,47 +514,47 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -552,47 +567,47 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tests/sample_files/sample_rdf.xlsx
+++ b/tests/sample_files/sample_rdf.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF969723-0F2A-46CC-94C6-F143809C8709}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4EBE5B8-7772-4FF2-B3C0-9869F3AE2B50}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
     <sheet name="bad" sheetId="2" r:id="rId2"/>
-    <sheet name="bad (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="also_bad" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,8 +21,55 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0420172A-4AEC-4BD0-B3C9-FB9AD8D10718}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This sheet is invalid becase the value header must be called "dc_value".</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A696FF83-FC28-4005-9C92-7C59E23D27C3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">This sheet is invalid becase the element header must be called "dc_element".
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>foo</t>
   </si>
@@ -48,24 +95,12 @@
     <t>source</t>
   </si>
   <si>
-    <t>relation</t>
-  </si>
-  <si>
     <t>dc_element</t>
   </si>
   <si>
     <t>dc_value</t>
   </si>
   <si>
-    <t>My Title</t>
-  </si>
-  <si>
-    <t>My Description</t>
-  </si>
-  <si>
-    <t>My Relation</t>
-  </si>
-  <si>
     <t>element</t>
   </si>
   <si>
@@ -75,29 +110,44 @@
     <t>identifier</t>
   </si>
   <si>
-    <t>extra_header</t>
-  </si>
-  <si>
-    <t>NO ELEMENT PROVIDED. THIS SHOULD BE IGNORED.</t>
-  </si>
-  <si>
-    <t>THIS SHOULD BE IGNORED.</t>
-  </si>
-  <si>
-    <t>id_1234</t>
-  </si>
-  <si>
-    <t>ignored</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>ignored_column</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>A very important email account.</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>NO ELEMENT PROVIDED. THIS ROW WILL BE IGNORED.</t>
+  </si>
+  <si>
+    <t>This will be ignored.</t>
+  </si>
+  <si>
+    <t>This will also be ignored.</t>
+  </si>
+  <si>
+    <t>Email Account: DEMO</t>
+  </si>
+  <si>
+    <t>demo_001</t>
+  </si>
+  <si>
+    <t>MyCloudEmail software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +162,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -438,13 +500,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,33 +517,35 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="str">
-        <f>CONCATENATE("My Type (this was created by Excel formula)")</f>
-        <v>My Type (this was created by Excel formula)</v>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -490,18 +554,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -510,7 +566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -519,25 +575,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -548,7 +604,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -559,38 +615,40 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C11:C12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -601,7 +659,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -612,5 +670,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/sample_files/sample_rdf.xlsx
+++ b/tests/sample_files/sample_rdf.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4EBE5B8-7772-4FF2-B3C0-9869F3AE2B50}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{268DC27C-19A3-4720-B8FB-963292374ADF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
-    <sheet name="bad" sheetId="2" r:id="rId2"/>
-    <sheet name="also_bad" sheetId="3" r:id="rId3"/>
+    <sheet name="good_too" sheetId="4" r:id="rId2"/>
+    <sheet name="bad" sheetId="2" r:id="rId3"/>
+    <sheet name="also_bad" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{68ED8CA9-846A-4A6F-AC4B-6A2ED3C58A6A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This worksheet is valid and will yield a METS &lt;dmdSec&gt; element if this file is passed to TOMES Packager.
+It is valid because it contains the valid headers "dc_element" and "dc_value".
+It is the user's responsibility to use correct Dublin Core element names in the "dc_element" column and legal XML values in the "dc_value" column.
+The name of the worksheet (e.g. "good") will be used for the &lt;dmdSec&gt; element's "ID" attribute value. Therefore, do not use whitespace or other illegal xml:id type values. Only use letters and underscores.
+Multiple worksheets within the same Excel file may be used. They will each yield a new METS &lt;dmdSec&gt; element.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -44,7 +72,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -69,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>foo</t>
   </si>
@@ -141,6 +169,21 @@
   </si>
   <si>
     <t>MyCloudEmail software</t>
+  </si>
+  <si>
+    <t>demo_001_v1</t>
+  </si>
+  <si>
+    <t>Email Account: DEMO, Processed by staff.</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>staff_1234</t>
+  </si>
+  <si>
+    <t>contributor</t>
   </si>
 </sst>
 </file>
@@ -484,8 +527,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -495,7 +538,7 @@
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -560,12 +603,74 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1179715D-B684-40C6-AD57-C77A2CECB004}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -620,7 +725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/tests/sample_files/sample_rdf.xlsx
+++ b/tests/sample_files/sample_rdf.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{268DC27C-19A3-4720-B8FB-963292374ADF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C80FCC8C-5B86-415B-9BD4-871927275039}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
-    <sheet name="good_too" sheetId="4" r:id="rId2"/>
+    <sheet name="good_2" sheetId="4" r:id="rId2"/>
     <sheet name="bad" sheetId="2" r:id="rId3"/>
     <sheet name="also_bad" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -40,7 +40,7 @@
           <t>This worksheet is valid and will yield a METS &lt;dmdSec&gt; element if this file is passed to TOMES Packager.
 It is valid because it contains the valid headers "dc_element" and "dc_value".
 It is the user's responsibility to use correct Dublin Core element names in the "dc_element" column and legal XML values in the "dc_value" column.
-The name of the worksheet (e.g. "good") will be used for the &lt;dmdSec&gt; element's "ID" attribute value. Therefore, do not use whitespace or other illegal xml:id type values. Only use letters and underscores.
+The name of the worksheet (e.g. "good") will be used for the &lt;dmdSec&gt; element's "ID" attribute value. Use only letters, underscores, and numbers provided the name does not start with a number.
 Multiple worksheets within the same Excel file may be used. They will each yield a new METS &lt;dmdSec&gt; element.</t>
         </r>
       </text>

--- a/tests/sample_files/sample_rdf.xlsx
+++ b/tests/sample_files/sample_rdf.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C80FCC8C-5B86-415B-9BD4-871927275039}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0EF70991-1D77-4888-95A0-B9E8AC0992C0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
     <sheet name="good_2" sheetId="4" r:id="rId2"/>
     <sheet name="bad" sheetId="2" r:id="rId3"/>
     <sheet name="also_bad" sheetId="3" r:id="rId4"/>
+    <sheet name="1bad_name" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -96,8 +97,31 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4EE79CBA-BBD0-46F8-A7FA-A77CD866FEAA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This worksheet will be ignored because the sheet name starts with a number.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>foo</t>
   </si>
@@ -777,4 +801,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFE259D-2C0C-472A-ADB8-B4C8CC60253F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/tests/sample_files/sample_rdf.xlsx
+++ b/tests/sample_files/sample_rdf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0EF70991-1D77-4888-95A0-B9E8AC0992C0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7971BE74-6BE9-4870-BA99-0FCA7BA442DF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4950" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="bad" sheetId="2" r:id="rId3"/>
     <sheet name="also_bad" sheetId="3" r:id="rId4"/>
     <sheet name="1bad_name" sheetId="5" r:id="rId5"/>
+    <sheet name="bad-name" sheetId="6" r:id="rId6"/>
+    <sheet name="bad name" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{68ED8CA9-846A-4A6F-AC4B-6A2ED3C58A6A}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{68ED8CA9-846A-4A6F-AC4B-6A2ED3C58A6A}">
       <text>
         <r>
           <rPr>
@@ -39,7 +41,7 @@
             <family val="2"/>
           </rPr>
           <t>This worksheet is valid and will yield a METS &lt;dmdSec&gt; element if this file is passed to TOMES Packager.
-It is valid because it contains the valid headers "dc_element" and "dc_value".
+It is valid because it contains the valid headers "dc_element" and "dc_value". Note: if columns exist, they will be ignored.
 It is the user's responsibility to use correct Dublin Core element names in the "dc_element" column and legal XML values in the "dc_value" column.
 The name of the worksheet (e.g. "good") will be used for the &lt;dmdSec&gt; element's "ID" attribute value. Use only letters, underscores, and numbers provided the name does not start with a number.
 Multiple worksheets within the same Excel file may be used. They will each yield a new METS &lt;dmdSec&gt; element.</t>
@@ -120,8 +122,54 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2D434D8B-2CF0-4066-A0FF-6C0C73521DB7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This worksheet will be ignored because the sheet name contains a hyphen.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AF303531-1859-4C6C-88A2-B0B9FED83B7E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This worksheet will be ignored because the sheet name contains a whitespace.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>foo</t>
   </si>
@@ -180,12 +228,6 @@
     <t>NO ELEMENT PROVIDED. THIS ROW WILL BE IGNORED.</t>
   </si>
   <si>
-    <t>This will be ignored.</t>
-  </si>
-  <si>
-    <t>This will also be ignored.</t>
-  </si>
-  <si>
     <t>Email Account: DEMO</t>
   </si>
   <si>
@@ -208,6 +250,9 @@
   </si>
   <si>
     <t>contributor</t>
+  </si>
+  <si>
+    <t>c3</t>
   </si>
 </sst>
 </file>
@@ -552,87 +597,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1179715D-B684-40C6-AD57-C77A2CECB004}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -654,37 +689,50 @@
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -830,7 +878,81 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F8DA62-536F-4DEF-BB5F-62AD925837D7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08323CE-4EEA-4FB2-9633-4B3FA7B6BF89}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/tests/sample_files/sample_rdf.xlsx
+++ b/tests/sample_files/sample_rdf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7971BE74-6BE9-4870-BA99-0FCA7BA442DF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2AB8559-A08D-4C2D-81D0-4F6C39ADA45E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
             <family val="2"/>
           </rPr>
           <t>This worksheet is valid and will yield a METS &lt;dmdSec&gt; element if this file is passed to TOMES Packager.
-It is valid because it contains the valid headers "dc_element" and "dc_value". Note: if columns exist, they will be ignored.
+It is valid because it contains the valid headers "dc_element" and "dc_value". Note: if other columns exist, they will be ignored.
 It is the user's responsibility to use correct Dublin Core element names in the "dc_element" column and legal XML values in the "dc_value" column.
 The name of the worksheet (e.g. "good") will be used for the &lt;dmdSec&gt; element's "ID" attribute value. Use only letters, underscores, and numbers provided the name does not start with a number.
-Multiple worksheets within the same Excel file may be used. They will each yield a new METS &lt;dmdSec&gt; element.</t>
+Multiple worksheets within the same .xlsx file may be used. They will each yield a new METS &lt;dmdSec&gt; element.</t>
         </r>
       </text>
     </comment>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>foo</t>
   </si>

--- a/tests/sample_files/sample_rdf.xlsx
+++ b/tests/sample_files/sample_rdf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2AB8559-A08D-4C2D-81D0-4F6C39ADA45E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CBAD6426-1BF5-4D64-B474-9A87E4C0BC48}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="good" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
           <t>This worksheet is valid and will yield a METS &lt;dmdSec&gt; element if this file is passed to TOMES Packager.
 It is valid because it contains the valid headers "dc_element" and "dc_value". Note: if other columns exist, they will be ignored.
 It is the user's responsibility to use correct Dublin Core element names in the "dc_element" column and legal XML values in the "dc_value" column.
-The name of the worksheet (e.g. "good") will be used for the &lt;dmdSec&gt; element's "ID" attribute value. Use only letters, underscores, and numbers provided the name does not start with a number.
+The name of the worksheet (e.g. "good") will be used for the &lt;dmdSec&gt; element's "ID" attribute value. For the sheet name, use only letters, underscores, and numbers provided the name does not start with a number.
 Multiple worksheets within the same .xlsx file may be used. They will each yield a new METS &lt;dmdSec&gt; element.</t>
         </r>
       </text>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This sheet is invalid becase the value header must be called "dc_value".</t>
+          <t>This sheet is invalid because the value header must be called "dc_value".</t>
         </r>
       </text>
     </comment>
@@ -90,7 +90,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">This sheet is invalid becase the element header must be called "dc_element".
+          <t xml:space="preserve">This sheet is invalid because the element header must be called "dc_element".
 </t>
         </r>
       </text>
